--- a/data/trans_camb/P5_1-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P5_1-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>0,17</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 11,41</t>
+          <t>-10,52; 13,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 7,19</t>
+          <t>-10,42; 8,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 6,67</t>
+          <t>-7,06; 8,03</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,55%</t>
+          <t>-2,75%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>0,52%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,19; 35,62</t>
+          <t>-25,13; 42,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,75; 25,55</t>
+          <t>-30,07; 32,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,9; 22,23</t>
+          <t>-19,79; 27,49</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>0,15</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 13,46</t>
+          <t>-13,01; 12,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 9,41</t>
+          <t>-10,83; 9,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 8,98</t>
+          <t>-8,18; 8,34</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>-0,69%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>0,25%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,67; 25,2</t>
+          <t>-18,98; 21,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,23; 18,63</t>
+          <t>-16,47; 17,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 17,17</t>
+          <t>-12,51; 14,71</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,51</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-23,21; 26,13</t>
+          <t>-46,21; 45,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,57; 15,29</t>
+          <t>-22,83; 21,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,65; 15,89</t>
+          <t>-22,73; 26,19</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,38%</t>
+          <t>-0,47%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,76%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-30,89; 50,01</t>
+          <t>-51,33; 84,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-21,85; 25,38</t>
+          <t>-31,85; 40,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-22,58; 27,73</t>
+          <t>-30,34; 46,83</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>0,38</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 10,01</t>
+          <t>-7,23; 11,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 5,49</t>
+          <t>-7,87; 6,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 5,45</t>
+          <t>-5,55; 5,88</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>-0,63%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>0,81%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 21,88</t>
+          <t>-13,64; 23,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 13,15</t>
+          <t>-16,04; 14,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 12,43</t>
+          <t>-11,11; 12,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_1-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P5_1-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,32</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,82</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.266416897559171</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-1.054455832140655</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.9230626319843005</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-10,52; 13,42</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-10,42; 8,26</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-7,06; 8,03</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-8.385765648351837</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-10.59738943636096</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-6.064717253727919</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,6%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,75%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,52%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15.262181332335</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>8.07329792756002</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>8.978700667037915</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-25,13; 42,69</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-30,07; 32,99</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-19,79; 27,49</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.08888124214198619</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.03526432385670583</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.02794758649081206</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,83</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,41</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.2018166942185878</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.3150828756171236</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1687771722366021</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-13,01; 12,13</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-10,83; 9,77</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-8,18; 8,34</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.4810591671461137</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.3236117911132962</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.3151997914958157</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,36%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,69%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,25%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-1.046322028446656</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.3897528937419681</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.2871016880733657</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-18,98; 21,72</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-16,47; 17,66</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-12,51; 14,71</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-16.3062926002363</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-9.487670224746749</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-8.495143671941616</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,4</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,31</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>11.19847264812978</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>10.72456145883588</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>8.357231072035432</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-46,21; 45,97</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-22,83; 21,76</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-22,73; 26,19</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.01712953575138724</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.006466526009838529</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.004733780181555239</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,96%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,47%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,76%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.2440706966982021</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.1477013396566186</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1315963895612267</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-51,33; 84,88</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-31,85; 40,42</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-30,34; 46,83</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.2031366063310072</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.197396511168181</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.1476602380812687</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>1,19</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,29</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>1.119089471788759</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.586941581699319</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>1.128225395526827</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-7,23; 11,18</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-7,87; 6,29</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-5,55; 5,88</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-46.14551619232768</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-20.52372666285551</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-21.01662934340866</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>2,37%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-0,63%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>0,81%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>45.73647485837628</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>23.60103070616411</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>26.91661965530283</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-13,64; 23,8</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-16,04; 14,92</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-11,11; 12,88</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.01568283292120599</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.0245983661088823</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.01659615910988531</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.5228625213736369</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.2846580046590146</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.2781569107743002</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.8507280042183673</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.4360029325542567</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.4988279023319451</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.266399887048109</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.1345041007722092</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.5316884626048957</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-7.047397813266447</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-7.591314518007727</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-5.46534765081468</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>11.05694042034893</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>6.528475703465246</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>5.956659928721832</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.02510010706466037</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.002959756594705435</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.01112898250062574</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.1306781907164749</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1551775435234519</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.109118422785282</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.2529143239056895</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.1509087285859446</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.1326729816100692</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
